--- a/MPTrx/_Obtain a Care Coin.xlsx
+++ b/MPTrx/_Obtain a Care Coin.xlsx
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Scope</t>
   </si>
@@ -99,9 +99,6 @@
     <t>[Organization,]</t>
   </si>
   <si>
-    <t>TParty</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>[Concerns]</t>
   </si>
   <si>
-    <t>Concern</t>
-  </si>
-  <si>
-    <t>MPTrx</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
@@ -268,6 +259,12 @@
   </si>
   <si>
     <t>[Client] has agreed to pay [CleaningFee] when [Object is cleaned].</t>
+  </si>
+  <si>
+    <t>ttIsaTParty</t>
+  </si>
+  <si>
+    <t>ttIsaConcern</t>
   </si>
 </sst>
 </file>
@@ -717,7 +714,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,15 +738,15 @@
         <v>4</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
@@ -760,22 +757,23 @@
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>20</v>
+      <c r="E2" s="19" t="str">
+        <f>$A2</f>
+        <v>Scope</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -786,107 +784,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="19" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18" style="13" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
-        <f>IF(OR($B3="",$C3=""),"",CONCATENATE("SHR_",$B3,"_",$C3))</f>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("SHR_",$C3,"_",$D3))</f>
         <v>SHR_ClnReqV1_Client</v>
       </c>
-      <c r="B3" s="20" t="str">
-        <f>IF($C3="","",'#Scopes'!$A$3)</f>
+      <c r="B3" s="14" t="str">
+        <f>IF($A3="","",$A3)</f>
+        <v>SHR_ClnReqV1_Client</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f>IF($D3="","",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
-        <f>IF(OR($B4="",$C4=""),"",CONCATENATE("SHR_",$B4,"_",$C4))</f>
+        <f>IF(OR($C4="",$D4=""),"",CONCATENATE("SHR_",$C4,"_",$D4))</f>
         <v>SHR_ClnReqV1_Carer</v>
       </c>
-      <c r="B4" s="20" t="str">
-        <f>IF($C4="","",'#Scopes'!$A$3)</f>
+      <c r="B4" s="14" t="str">
+        <f t="shared" ref="B4:B5" si="0">IF($A4="","",$A4)</f>
+        <v>SHR_ClnReqV1_Carer</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f>IF($D4="","",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
-        <f t="shared" ref="A5" si="0">IF(OR($B5="",$C5=""),"",CONCATENATE("SHR_",$B5,"_",$C5))</f>
-        <v/>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>IF($C5="","",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+        <f t="shared" ref="A5" si="1">IF(OR($C5="",$D5=""),"",CONCATENATE("SHR_",$C5,"_",$D5))</f>
+        <v/>
+      </c>
+      <c r="B5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f>IF($D5="","",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,123 +913,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:A6" si="0">IF(OR($B3="",$C3=""),"",CONCATENATE("Conc_",$B3,"_",$C3))</f>
+        <f t="shared" ref="A3:A6" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
         <v>Conc_ClnReqV1_Client need</v>
       </c>
-      <c r="B3" s="14" t="str">
-        <f>IF(AND($E3="",$C3=""),"",'#Scopes'!$A$3)</f>
+      <c r="B3" s="16" t="str">
+        <f t="shared" ref="B3:B6" si="1">IF($A3="","",$A3)</f>
+        <v>Conc_ClnReqV1_Client need</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_ClnReqV1_Carer's offer</v>
+      </c>
+      <c r="B4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_ClnReqV1_Carer's offer</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
+        <v>ClnReqV1</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_ClnReqV1_Carer's offer</v>
-      </c>
-      <c r="B4" s="14" t="str">
-        <f>IF(AND($E4="",$C4=""),"",'#Scopes'!$A$3)</f>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_ClnReqV1_Commit to pay</v>
+      </c>
+      <c r="B5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_ClnReqV1_Commit to pay</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_ClnReqV1_Commit to pay</v>
-      </c>
-      <c r="B5" s="14" t="str">
-        <f>IF(AND($E5="",$C5=""),"",'#Scopes'!$A$3)</f>
-        <v>ClnReqV1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B6" s="14" t="str">
-        <f>IF(AND($E6="",$C6=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="B6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
       <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,13 +1157,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1136,13 +1177,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1156,13 +1197,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1175,13 +1216,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1194,13 +1235,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1215,13 +1256,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1236,13 +1277,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1256,13 +1297,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1275,13 +1316,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1294,13 +1335,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1316,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1335,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1354,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1373,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,10 +1525,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1513,10 +1554,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1542,34 +1583,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Obtain a Care Coin.xlsx
+++ b/MPTrx/_Obtain a Care Coin.xlsx
@@ -105,9 +105,6 @@
     <t>tPartyReqdOrg</t>
   </si>
   <si>
-    <t>[Concerns]</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
@@ -264,7 +261,10 @@
     <t>ttIsaTParty</t>
   </si>
   <si>
-    <t>ttIsaConcern</t>
+    <t>[Objectives]</t>
+  </si>
+  <si>
+    <t>ttIsaObjective</t>
   </si>
 </sst>
 </file>
@@ -738,10 +738,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -764,16 +764,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>16</v>
@@ -858,10 +858,10 @@
         <v>ClnReqV1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -880,10 +880,10 @@
         <v>ClnReqV1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="13"/>
@@ -916,12 +916,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="13" customWidth="1"/>
@@ -930,7 +931,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>70</v>
@@ -971,80 +972,80 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:A6" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
-        <v>Conc_ClnReqV1_Client need</v>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
+        <v>Obj_ClnReqV1_Client need</v>
       </c>
       <c r="B3" s="16" t="str">
-        <f t="shared" ref="B3:B6" si="1">IF($A3="","",$A3)</f>
-        <v>Conc_ClnReqV1_Client need</v>
+        <f t="shared" ref="B3" si="0">IF($A3="","",$A3)</f>
+        <v>Obj_ClnReqV1_Client need</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_ClnReqV1_Carer's offer</v>
+        <f t="shared" ref="A4:A6" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Obj_",$C4,"_",$D4))</f>
+        <v>Obj_ClnReqV1_Carer's offer</v>
       </c>
       <c r="B4" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_ClnReqV1_Carer's offer</v>
+        <f t="shared" ref="B4:B6" si="2">IF($A4="","",$A4)</f>
+        <v>Obj_ClnReqV1_Carer's offer</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_ClnReqV1_Commit to pay</v>
+        <f t="shared" si="1"/>
+        <v>Obj_ClnReqV1_Commit to pay</v>
       </c>
       <c r="B5" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_ClnReqV1_Commit to pay</v>
+        <f t="shared" si="2"/>
+        <v>Obj_ClnReqV1_Commit to pay</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
         <v>ClnReqV1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B6" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C6" s="14" t="str">
@@ -1157,13 +1158,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1177,13 +1178,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1197,13 +1198,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1216,13 +1217,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1235,13 +1236,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1256,13 +1257,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1277,13 +1278,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1297,13 +1298,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1316,13 +1317,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1335,13 +1336,13 @@
         <v>ClnReqV1</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1357,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1376,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1395,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1414,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1525,10 +1526,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1554,10 +1555,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1583,34 +1584,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
